--- a/Segundo Semestre/BCD - Bancos de dados/bcd3/exercicio1.xlsx
+++ b/Segundo Semestre/BCD - Bancos de dados/bcd3/exercicio1.xlsx
@@ -5,15 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\Senai2022\Segundo Semestre\BCD - Bancos de dados\bcd3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE811897-E57B-4B69-BA8A-C73E1036BBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A463086D-5473-460A-BB46-4AE997F8EE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C750C125-5DBE-4DE3-8786-17D83FFAFE7A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C750C125-5DBE-4DE3-8786-17D83FFAFE7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="clientes" sheetId="2" r:id="rId2"/>
+    <sheet name="telefones" sheetId="3" r:id="rId3"/>
+    <sheet name="clientesInsert" sheetId="4" r:id="rId4"/>
+    <sheet name="Planilha3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="51">
   <si>
     <t>id_cliente</t>
   </si>
@@ -144,6 +148,54 @@
   </si>
   <si>
     <t>coo6</t>
+  </si>
+  <si>
+    <t>Concatenar</t>
+  </si>
+  <si>
+    <t>insert into clientes values(</t>
+  </si>
+  <si>
+    <t>,"</t>
+  </si>
+  <si>
+    <t>","</t>
+  </si>
+  <si>
+    <t>2000-05-22</t>
+  </si>
+  <si>
+    <t>",</t>
+  </si>
+  <si>
+    <t>65.5</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>1990-08-23</t>
+  </si>
+  <si>
+    <t>1988-06-14</t>
+  </si>
+  <si>
+    <t>45.5</t>
+  </si>
+  <si>
+    <t>2002-07-13</t>
+  </si>
+  <si>
+    <t>2005-08-14</t>
+  </si>
+  <si>
+    <t>2007-06-15</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>insert into telefones values(</t>
   </si>
 </sst>
 </file>
@@ -331,7 +383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -354,6 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EA0501-CE01-4226-81E3-B6E9F1B4FA85}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,7 +738,7 @@
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,7 +758,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -725,7 +778,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -745,7 +798,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -765,7 +818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -785,7 +838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -805,7 +858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -825,199 +878,835 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC03D0E-7D54-4274-A1D6-CA75DA922210}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="5" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7">
+        <v>36668</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="12">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7">
+        <v>33108</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7">
+        <v>32308</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7">
+        <v>37450</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="7">
+        <v>38578</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="12">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="15">
+        <v>39248</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="16">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E483E5A-54D7-4E6E-AE28-EEEF1C4EA5CA}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="B1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB2A655-D45E-44ED-8AF9-DC2441E53517}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="7">
-        <v>36668</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="12">
-        <v>65</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="17" t="s">
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" t="str">
+        <f>A2&amp;B2&amp;C2&amp;D2&amp;E2&amp;F2&amp;G2&amp;H2&amp;I2&amp;J2&amp;K2</f>
+        <v>insert into clientes values(1,"Ana de Souza de Oliveira","2000-05-22","M",65.5);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3">
+        <v>88</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M7" si="0">A3&amp;B3&amp;C3&amp;D3&amp;E3&amp;F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3</f>
+        <v>insert into clientes values(2,"Ana Oliveira Oliveira","1990-08-23","T",88);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into clientes values(3,"Lúcia da Silva de Souza","1988-06-14","F",45.5);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5">
+        <v>98</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into clientes values(4,"Marcos de Souza Castro","2002-07-13","M",98);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6">
+        <v>101</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into clientes values(5,"Maria Oliveira Castro","2005-08-14","T",101);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into clientes values(6,"Jurema de Souza Castro","2007-06-15","F",80);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7552B17F-1D7C-456D-B2D7-552CAE87929E}">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="str">
+        <f>A2&amp;B2&amp;C2&amp;D2&amp;E2&amp;F2</f>
+        <v>insert into telefones values(1,"(11)04023-4384");</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G11" si="0">A3&amp;B3&amp;C3&amp;D3&amp;E3&amp;F3</f>
+        <v>insert into telefones values(1,"(14)3288-8530");</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="7">
-        <v>33108</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="12">
-        <v>88</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into telefones values(2,"(21)74746-1126");</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into telefones values(2,"(14)64505-3435");</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into telefones values(2,"(19)03086-1102");</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="7">
-        <v>32308</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="12">
-        <v>45.5</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into telefones values(3,"(14)64500-3435");</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="7">
-        <v>37450</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="str">
+        <f>A8&amp;B8&amp;C8&amp;D8&amp;E8&amp;F8</f>
+        <v>insert into telefones values(4,"(19)28260-0126");</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into telefones values(5,"(21)34757-1544");</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="E15" s="12">
-        <v>98</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
-        <v>5</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="7">
-        <v>38578</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="12">
-        <v>101</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into telefones values(6,"(19)3030-4465");</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11">
         <v>6</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="15">
-        <v>39248</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="16">
-        <v>80</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="6" t="s">
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>33</v>
       </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into telefones values(6,"(19)93030-4460");</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
